--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H2">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I2">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J2">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.2281042436324</v>
+        <v>48.3439545</v>
       </c>
       <c r="N2">
-        <v>48.2281042436324</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O2">
-        <v>0.5955791056817948</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P2">
-        <v>0.5955791056817948</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q2">
-        <v>414.5132451498889</v>
+        <v>416.7605656284209</v>
       </c>
       <c r="R2">
-        <v>414.5132451498889</v>
+        <v>1667.042262513684</v>
       </c>
       <c r="S2">
-        <v>0.2285579943947295</v>
+        <v>0.2208460587792768</v>
       </c>
       <c r="T2">
-        <v>0.2285579943947295</v>
+        <v>0.1488058561954447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H3">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I3">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J3">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.58055528418522</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N3">
-        <v>3.58055528418522</v>
+        <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04421703791686597</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P3">
-        <v>0.04421703791686597</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q3">
-        <v>30.77432989670451</v>
+        <v>32.38406666629866</v>
       </c>
       <c r="R3">
-        <v>30.77432989670451</v>
+        <v>194.304399997792</v>
       </c>
       <c r="S3">
-        <v>0.01696862332466394</v>
+        <v>0.01716067708976565</v>
       </c>
       <c r="T3">
-        <v>0.01696862332466394</v>
+        <v>0.01734427090085622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H4">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I4">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J4">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.3535515704636</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N4">
-        <v>24.3535515704636</v>
+        <v>0.106456</v>
       </c>
       <c r="O4">
-        <v>0.3007471824154734</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P4">
-        <v>0.3007471824154734</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q4">
-        <v>209.3150840307159</v>
+        <v>0.3059097615093333</v>
       </c>
       <c r="R4">
-        <v>209.3150840307159</v>
+        <v>1.835458569056</v>
       </c>
       <c r="S4">
-        <v>0.1154140099560037</v>
+        <v>0.0001621049848360164</v>
       </c>
       <c r="T4">
-        <v>0.1154140099560037</v>
+        <v>0.0001638392679186211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H5">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I5">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J5">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.81461260748464</v>
+        <v>24.727721</v>
       </c>
       <c r="N5">
-        <v>4.81461260748464</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O5">
-        <v>0.05945667398586567</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P5">
-        <v>0.05945667398586567</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q5">
-        <v>41.38086552161177</v>
+        <v>213.171204078098</v>
       </c>
       <c r="R5">
-        <v>41.38086552161177</v>
+        <v>1279.027224468588</v>
       </c>
       <c r="S5">
-        <v>0.02281694913395974</v>
+        <v>0.1129617918501797</v>
       </c>
       <c r="T5">
-        <v>0.02281694913395974</v>
+        <v>0.1141703156027631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.84597276610613</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H6">
-        <v>4.84597276610613</v>
+        <v>17.241476</v>
       </c>
       <c r="I6">
-        <v>0.2163713281444803</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J6">
-        <v>0.2163713281444803</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.2281042436324</v>
+        <v>4.9910045</v>
       </c>
       <c r="N6">
-        <v>48.2281042436324</v>
+        <v>9.982009</v>
       </c>
       <c r="O6">
-        <v>0.5955791056817948</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P6">
-        <v>0.5955791056817948</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q6">
-        <v>233.7120797255701</v>
+        <v>43.026142151321</v>
       </c>
       <c r="R6">
-        <v>233.7120797255701</v>
+        <v>172.104568605284</v>
       </c>
       <c r="S6">
-        <v>0.1288662421114717</v>
+        <v>0.02280003124640197</v>
       </c>
       <c r="T6">
-        <v>0.1288662421114717</v>
+        <v>0.01536263852593642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H7">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J7">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.58055528418522</v>
+        <v>48.3439545</v>
       </c>
       <c r="N7">
-        <v>3.58055528418522</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O7">
-        <v>0.04421703791686597</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P7">
-        <v>0.04421703791686597</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q7">
-        <v>17.35127339469897</v>
+        <v>245.490439804485</v>
       </c>
       <c r="R7">
-        <v>17.35127339469897</v>
+        <v>1472.94263882691</v>
       </c>
       <c r="S7">
-        <v>0.009567299220687135</v>
+        <v>0.1300881143038611</v>
       </c>
       <c r="T7">
-        <v>0.009567299220687135</v>
+        <v>0.1314798643238457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H8">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J8">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.3535515704636</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N8">
-        <v>24.3535515704636</v>
+        <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.3007471824154734</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P8">
-        <v>0.3007471824154734</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q8">
-        <v>118.0166476684278</v>
+        <v>19.07565020356444</v>
       </c>
       <c r="R8">
-        <v>118.0166476684278</v>
+        <v>171.68085183208</v>
       </c>
       <c r="S8">
-        <v>0.06507306729494629</v>
+        <v>0.01010839919500778</v>
       </c>
       <c r="T8">
-        <v>0.06507306729494629</v>
+        <v>0.01532481612716537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H9">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J9">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.81461260748464</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N9">
-        <v>4.81461260748464</v>
+        <v>0.106456</v>
       </c>
       <c r="O9">
-        <v>0.05945667398586567</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P9">
-        <v>0.05945667398586567</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q9">
-        <v>23.33148157522179</v>
+        <v>0.1801944043822222</v>
       </c>
       <c r="R9">
-        <v>23.33148157522179</v>
+        <v>1.62174963944</v>
       </c>
       <c r="S9">
-        <v>0.01286471951737513</v>
+        <v>9.548701893588947E-05</v>
       </c>
       <c r="T9">
-        <v>0.01286471951737513</v>
+        <v>0.0001447628827763699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H10">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J10">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2281042436324</v>
+        <v>24.727721</v>
       </c>
       <c r="N10">
-        <v>48.2281042436324</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O10">
-        <v>0.5955791056817948</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P10">
-        <v>0.5955791056817948</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q10">
-        <v>19.9222865521346</v>
+        <v>125.5672848122633</v>
       </c>
       <c r="R10">
-        <v>19.9222865521346</v>
+        <v>1130.10556331037</v>
       </c>
       <c r="S10">
-        <v>0.01098492728855131</v>
+        <v>0.06653950073368504</v>
       </c>
       <c r="T10">
-        <v>0.01098492728855131</v>
+        <v>0.1008770621604169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H11">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I11">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J11">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.58055528418522</v>
+        <v>4.9910045</v>
       </c>
       <c r="N11">
-        <v>3.58055528418522</v>
+        <v>9.982009</v>
       </c>
       <c r="O11">
-        <v>0.04421703791686597</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P11">
-        <v>0.04421703791686597</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q11">
-        <v>1.479072202941002</v>
+        <v>25.34430421431833</v>
       </c>
       <c r="R11">
-        <v>1.479072202941002</v>
+        <v>152.06582528591</v>
       </c>
       <c r="S11">
-        <v>0.0008155439668687761</v>
+        <v>0.01343022867289611</v>
       </c>
       <c r="T11">
-        <v>0.0008155439668687761</v>
+        <v>0.01357391221480865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H12">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I12">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J12">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.3535515704636</v>
+        <v>48.3439545</v>
       </c>
       <c r="N12">
-        <v>24.3535515704636</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O12">
-        <v>0.3007471824154734</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P12">
-        <v>0.3007471824154734</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q12">
-        <v>10.06007680704186</v>
+        <v>12.790650105792</v>
       </c>
       <c r="R12">
-        <v>10.06007680704186</v>
+        <v>76.74390063475199</v>
       </c>
       <c r="S12">
-        <v>0.005547014493211154</v>
+        <v>0.006777907743813343</v>
       </c>
       <c r="T12">
-        <v>0.005547014493211154</v>
+        <v>0.006850421311162567</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H13">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I13">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J13">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.81461260748464</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N13">
-        <v>4.81461260748464</v>
+        <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.05945667398586567</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P13">
-        <v>0.05945667398586567</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q13">
-        <v>1.988842263408956</v>
+        <v>0.9938878576639999</v>
       </c>
       <c r="R13">
-        <v>1.988842263408956</v>
+        <v>8.944990718975999</v>
       </c>
       <c r="S13">
-        <v>0.001096625510067485</v>
+        <v>0.0005266722294195504</v>
       </c>
       <c r="T13">
-        <v>0.001096625510067485</v>
+        <v>0.0007984602625433465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H14">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I14">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J14">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>48.2281042436324</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N14">
-        <v>48.2281042436324</v>
+        <v>0.106456</v>
       </c>
       <c r="O14">
-        <v>0.5955791056817948</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P14">
-        <v>0.5955791056817948</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q14">
-        <v>305.0789983651945</v>
+        <v>0.009388567552</v>
       </c>
       <c r="R14">
-        <v>305.0789983651945</v>
+        <v>0.084497107968</v>
       </c>
       <c r="S14">
-        <v>0.1682171675191897</v>
+        <v>4.975106361888492E-06</v>
       </c>
       <c r="T14">
-        <v>0.1682171675191897</v>
+        <v>7.542498939563605E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H15">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I15">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J15">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.58055528418522</v>
+        <v>24.727721</v>
       </c>
       <c r="N15">
-        <v>3.58055528418522</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O15">
-        <v>0.04421703791686597</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P15">
-        <v>0.04421703791686597</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q15">
-        <v>22.64970263339048</v>
+        <v>6.542361511296</v>
       </c>
       <c r="R15">
-        <v>22.64970263339048</v>
+        <v>58.88125360166401</v>
       </c>
       <c r="S15">
-        <v>0.0124887941895628</v>
+        <v>0.003466870126496496</v>
       </c>
       <c r="T15">
-        <v>0.0124887941895628</v>
+        <v>0.005255940747923782</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H16">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I16">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J16">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.3535515704636</v>
+        <v>4.9910045</v>
       </c>
       <c r="N16">
-        <v>24.3535515704636</v>
+        <v>9.982009</v>
       </c>
       <c r="O16">
-        <v>0.3007471824154734</v>
+        <v>0.06097395438375338</v>
       </c>
       <c r="P16">
-        <v>0.3007471824154734</v>
+        <v>0.05192766076571049</v>
       </c>
       <c r="Q16">
-        <v>154.0545131572967</v>
+        <v>1.320500006592</v>
       </c>
       <c r="R16">
-        <v>154.0545131572967</v>
+        <v>7.923000039552</v>
       </c>
       <c r="S16">
-        <v>0.084943945619774</v>
+        <v>0.0006997476395928108</v>
       </c>
       <c r="T16">
-        <v>0.084943945619774</v>
+        <v>0.0007072339022433153</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.32575140884735</v>
+        <v>0.413146</v>
       </c>
       <c r="H17">
-        <v>6.32575140884735</v>
+        <v>1.239438</v>
       </c>
       <c r="I17">
-        <v>0.282443030513338</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J17">
-        <v>0.282443030513338</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.81461260748464</v>
+        <v>48.3439545</v>
       </c>
       <c r="N17">
-        <v>4.81461260748464</v>
+        <v>96.68790899999999</v>
       </c>
       <c r="O17">
-        <v>0.05945667398586567</v>
+        <v>0.5906069762936997</v>
       </c>
       <c r="P17">
-        <v>0.05945667398586567</v>
+        <v>0.5029826098832294</v>
       </c>
       <c r="Q17">
-        <v>30.45604248485017</v>
+        <v>19.973111425857</v>
       </c>
       <c r="R17">
-        <v>30.45604248485017</v>
+        <v>119.838668555142</v>
       </c>
       <c r="S17">
-        <v>0.01679312318481145</v>
+        <v>0.01058397387792357</v>
       </c>
       <c r="T17">
-        <v>0.01679312318481145</v>
+        <v>0.0106972067119526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H18">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I18">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J18">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.2281042436324</v>
+        <v>3.756530666666666</v>
       </c>
       <c r="N18">
-        <v>48.2281042436324</v>
+        <v>11.269592</v>
       </c>
       <c r="O18">
-        <v>0.5955791056817948</v>
+        <v>0.04589267140722955</v>
       </c>
       <c r="P18">
-        <v>0.5955791056817948</v>
+        <v>0.05862582876292385</v>
       </c>
       <c r="Q18">
-        <v>106.9168719235631</v>
+        <v>1.551995618810667</v>
       </c>
       <c r="R18">
-        <v>106.9168719235631</v>
+        <v>13.967960569296</v>
       </c>
       <c r="S18">
-        <v>0.05895277436785251</v>
+        <v>0.000822419739113788</v>
       </c>
       <c r="T18">
-        <v>0.05895277436785251</v>
+        <v>0.001246827617126018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H19">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I19">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J19">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>3.58055528418522</v>
+        <v>0.03548533333333333</v>
       </c>
       <c r="N19">
-        <v>3.58055528418522</v>
+        <v>0.106456</v>
       </c>
       <c r="O19">
-        <v>0.04421703791686597</v>
+        <v>0.0004335161581118491</v>
       </c>
       <c r="P19">
-        <v>0.04421703791686597</v>
+        <v>0.0005537974424261163</v>
       </c>
       <c r="Q19">
-        <v>7.937732090827775</v>
+        <v>0.01466062352533333</v>
       </c>
       <c r="R19">
-        <v>7.937732090827775</v>
+        <v>0.131945611728</v>
       </c>
       <c r="S19">
-        <v>0.004376777215083317</v>
+        <v>7.768827455962684E-06</v>
       </c>
       <c r="T19">
-        <v>0.004376777215083317</v>
+        <v>1.177791359339073E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H20">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I20">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J20">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.3535515704636</v>
+        <v>24.727721</v>
       </c>
       <c r="N20">
-        <v>24.3535515704636</v>
+        <v>74.18316300000001</v>
       </c>
       <c r="O20">
-        <v>0.3007471824154734</v>
+        <v>0.3020928817572056</v>
       </c>
       <c r="P20">
-        <v>0.3007471824154734</v>
+        <v>0.3859101031457101</v>
       </c>
       <c r="Q20">
-        <v>53.98938222803828</v>
+        <v>10.216159020266</v>
       </c>
       <c r="R20">
-        <v>53.98938222803828</v>
+        <v>91.94543118239402</v>
       </c>
       <c r="S20">
-        <v>0.02976914505153826</v>
+        <v>0.005413656285080739</v>
       </c>
       <c r="T20">
-        <v>0.02976914505153826</v>
+        <v>0.008207361575659617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.413146</v>
+      </c>
+      <c r="H21">
+        <v>1.239438</v>
+      </c>
+      <c r="I21">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J21">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.9910045</v>
+      </c>
+      <c r="N21">
+        <v>9.982009</v>
+      </c>
+      <c r="O21">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P21">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q21">
+        <v>2.062013545157</v>
+      </c>
+      <c r="R21">
+        <v>12.372081270942</v>
+      </c>
+      <c r="S21">
+        <v>0.001092683910510445</v>
+      </c>
+      <c r="T21">
+        <v>0.001104374008890514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H22">
+        <v>19.241697</v>
+      </c>
+      <c r="I22">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J22">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>48.3439545</v>
+      </c>
+      <c r="N22">
+        <v>96.68790899999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5906069762936997</v>
+      </c>
+      <c r="P22">
+        <v>0.5029826098832294</v>
+      </c>
+      <c r="Q22">
+        <v>310.0732414235955</v>
+      </c>
+      <c r="R22">
+        <v>1860.439448541573</v>
+      </c>
+      <c r="S22">
+        <v>0.1643112591472267</v>
+      </c>
+      <c r="T22">
+        <v>0.1660691460950513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H23">
+        <v>19.241697</v>
+      </c>
+      <c r="I23">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J23">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N23">
+        <v>11.269592</v>
+      </c>
+      <c r="O23">
+        <v>0.04589267140722955</v>
+      </c>
+      <c r="P23">
+        <v>0.05862582876292385</v>
+      </c>
+      <c r="Q23">
+        <v>24.09400828640267</v>
+      </c>
+      <c r="R23">
+        <v>216.846074577624</v>
+      </c>
+      <c r="S23">
+        <v>0.012767682955377</v>
+      </c>
+      <c r="T23">
+        <v>0.01935641736010261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H24">
+        <v>19.241697</v>
+      </c>
+      <c r="I24">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J24">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.106456</v>
+      </c>
+      <c r="O24">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P24">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q24">
+        <v>0.2275993439813334</v>
+      </c>
+      <c r="R24">
+        <v>2.048394095832</v>
+      </c>
+      <c r="S24">
+        <v>0.0001206074236491981</v>
+      </c>
+      <c r="T24">
+        <v>0.0001828466164957066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H25">
+        <v>19.241697</v>
+      </c>
+      <c r="I25">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J25">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.727721</v>
+      </c>
+      <c r="N25">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O25">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P25">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q25">
+        <v>158.601104994179</v>
+      </c>
+      <c r="R25">
+        <v>1427.409944947611</v>
+      </c>
+      <c r="S25">
+        <v>0.08404448943768805</v>
+      </c>
+      <c r="T25">
+        <v>0.1274154613690116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H26">
+        <v>19.241697</v>
+      </c>
+      <c r="I26">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J26">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.9910045</v>
+      </c>
+      <c r="N26">
+        <v>9.982009</v>
+      </c>
+      <c r="O26">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P26">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q26">
+        <v>32.0117987715455</v>
+      </c>
+      <c r="R26">
+        <v>192.070792629273</v>
+      </c>
+      <c r="S26">
+        <v>0.01696340819211376</v>
+      </c>
+      <c r="T26">
+        <v>0.0171448915183709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.26402</v>
+      </c>
+      <c r="H27">
+        <v>4.52804</v>
+      </c>
+      <c r="I27">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J27">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>48.3439545</v>
+      </c>
+      <c r="N27">
+        <v>96.68790899999999</v>
+      </c>
+      <c r="O27">
+        <v>0.5906069762936997</v>
+      </c>
+      <c r="P27">
+        <v>0.5029826098832294</v>
+      </c>
+      <c r="Q27">
+        <v>109.45167986709</v>
+      </c>
+      <c r="R27">
+        <v>437.8067194683599</v>
+      </c>
+      <c r="S27">
+        <v>0.0579996624415982</v>
+      </c>
+      <c r="T27">
+        <v>0.03908011524577254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.26402</v>
+      </c>
+      <c r="H28">
+        <v>4.52804</v>
+      </c>
+      <c r="I28">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J28">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.756530666666666</v>
+      </c>
+      <c r="N28">
+        <v>11.269592</v>
+      </c>
+      <c r="O28">
+        <v>0.04589267140722955</v>
+      </c>
+      <c r="P28">
+        <v>0.05862582876292385</v>
+      </c>
+      <c r="Q28">
+        <v>8.504860559946666</v>
+      </c>
+      <c r="R28">
+        <v>51.02916335968</v>
+      </c>
+      <c r="S28">
+        <v>0.004506820198545788</v>
+      </c>
+      <c r="T28">
+        <v>0.004555036495130289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.26402</v>
+      </c>
+      <c r="H29">
+        <v>4.52804</v>
+      </c>
+      <c r="I29">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J29">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03548533333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.106456</v>
+      </c>
+      <c r="O29">
+        <v>0.0004335161581118491</v>
+      </c>
+      <c r="P29">
+        <v>0.0005537974424261163</v>
+      </c>
+      <c r="Q29">
+        <v>0.08033950437333333</v>
+      </c>
+      <c r="R29">
+        <v>0.4820370262399999</v>
+      </c>
+      <c r="S29">
+        <v>4.257279687289393E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.30282627024643E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="H21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="I21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="J21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="N21">
-        <v>4.81461260748464</v>
-      </c>
-      <c r="O21">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="P21">
-        <v>0.05945667398586567</v>
-      </c>
-      <c r="Q21">
-        <v>10.67351345422149</v>
-      </c>
-      <c r="R21">
-        <v>10.67351345422149</v>
-      </c>
-      <c r="S21">
-        <v>0.005885256639651868</v>
-      </c>
-      <c r="T21">
-        <v>0.005885256639651868</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.26402</v>
+      </c>
+      <c r="H30">
+        <v>4.52804</v>
+      </c>
+      <c r="I30">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J30">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>24.727721</v>
+      </c>
+      <c r="N30">
+        <v>74.18316300000001</v>
+      </c>
+      <c r="O30">
+        <v>0.3020928817572056</v>
+      </c>
+      <c r="P30">
+        <v>0.3859101031457101</v>
+      </c>
+      <c r="Q30">
+        <v>55.98405489842001</v>
+      </c>
+      <c r="R30">
+        <v>335.90432939052</v>
+      </c>
+      <c r="S30">
+        <v>0.02966657332407549</v>
+      </c>
+      <c r="T30">
+        <v>0.02998396168993509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.26402</v>
+      </c>
+      <c r="H31">
+        <v>4.52804</v>
+      </c>
+      <c r="I31">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J31">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.9910045</v>
+      </c>
+      <c r="N31">
+        <v>9.982009</v>
+      </c>
+      <c r="O31">
+        <v>0.06097395438375338</v>
+      </c>
+      <c r="P31">
+        <v>0.05192766076571049</v>
+      </c>
+      <c r="Q31">
+        <v>11.29973400809</v>
+      </c>
+      <c r="R31">
+        <v>45.19893603236</v>
+      </c>
+      <c r="S31">
+        <v>0.005987854722238281</v>
+      </c>
+      <c r="T31">
+        <v>0.004034610595460688</v>
       </c>
     </row>
   </sheetData>
